--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3074,7 +3075,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -3090,6 +3090,706 @@
       </c>
       <c r="H29" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5495</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3795,4 +3796,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4232,4 +4233,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4241,7 +4242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4252,17 +4253,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4272,14 +4293,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.52</v>
       </c>
     </row>
     <row r="3">
@@ -4288,14 +4331,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.33</v>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4304,14 +4369,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>18.18</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="5">
@@ -4320,13 +4491,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>43.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4412,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4423,17 +4424,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4443,14 +4464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4459,14 +4502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.52</v>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4475,14 +4540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.33</v>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4491,14 +4578,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.18</v>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4507,13 +4616,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>43.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4735,7 +4736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4746,17 +4747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4766,14 +4787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4782,14 +4825,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -4798,14 +4931,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -4814,14 +4947,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>9.33</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="6">
@@ -4830,14 +4963,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>18.18</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="7">
@@ -4846,13 +4979,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>43.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
+++ b/数据整理/stocks/A股/深证主板/000961-中南建设.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.52</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>9.33</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>18.18</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>43.03</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2359,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3472,7 +3583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
